--- a/modules/subp_data.xlsx
+++ b/modules/subp_data.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1 - Data Entry Table (Key=" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>asset_name</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>512,512</t>
+  </si>
+  <si>
+    <t>NewAssetType</t>
+  </si>
+  <si>
+    <t>NAST</t>
+  </si>
+  <si>
+    <t>EXA,EGX</t>
+  </si>
+  <si>
+    <t>PAP,LRS</t>
+  </si>
+  <si>
+    <t>256,256</t>
   </si>
 </sst>
 </file>
@@ -107,17 +122,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,16 +157,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -149,18 +176,27 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,7 +215,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffb680"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fff4f9f8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -378,12 +416,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -415,10 +453,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -657,12 +695,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -966,10 +1004,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1218,11 +1256,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="1" customWidth="1"/>
     <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1244,106 +1282,116 @@
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" t="s" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
   </sheetData>
